--- a/data/trans_dic/Hacinamiento_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/Hacinamiento_R-Habitat-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,86; 7,55</t>
+          <t>0,87; 7,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,74; 6,66</t>
+          <t>0,72; 6,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,65; 12,13</t>
+          <t>2,16; 12,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,39</t>
+          <t>0,0; 7,61</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,25</t>
+          <t>0,0; 3,84</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,93; 7,42</t>
+          <t>0,95; 8,34</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,75; 8,3</t>
+          <t>0,75; 7,59</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,0</t>
+          <t>0,0; 1,72</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,44; 4,44</t>
+          <t>0,47; 4,49</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,13; 5,79</t>
+          <t>1,17; 5,53</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,06; 8,11</t>
+          <t>1,98; 8,21</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,17; 3,25</t>
+          <t>0,0; 3,02</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,17; 5,81</t>
+          <t>2,27; 5,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,37; 7,08</t>
+          <t>3,3; 6,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,83; 6,67</t>
+          <t>2,85; 6,89</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,51; 4,52</t>
+          <t>0,48; 4,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,26; 8,52</t>
+          <t>4,17; 8,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,85; 6,31</t>
+          <t>2,81; 6,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,62; 6,02</t>
+          <t>2,78; 6,23</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,03; 3,01</t>
+          <t>1,07; 3,09</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,76; 6,47</t>
+          <t>3,72; 6,39</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,56; 6,01</t>
+          <t>3,49; 6,09</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,24; 5,85</t>
+          <t>3,19; 5,73</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,01; 2,91</t>
+          <t>0,96; 2,82</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,36; 7,45</t>
+          <t>4,33; 7,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,45; 6,14</t>
+          <t>3,34; 6,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,59; 5,14</t>
+          <t>2,53; 5,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,25; 3,19</t>
+          <t>1,19; 3,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,04; 8,41</t>
+          <t>4,94; 8,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,62; 7,8</t>
+          <t>4,66; 7,68</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,01; 5,53</t>
+          <t>2,98; 5,46</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,36; 2,95</t>
+          <t>1,4; 3,03</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,15; 7,43</t>
+          <t>5,09; 7,39</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,37; 6,42</t>
+          <t>4,41; 6,45</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,96; 4,73</t>
+          <t>2,94; 4,72</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,43; 2,73</t>
+          <t>1,47; 2,78</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,29; 5,34</t>
+          <t>2,21; 5,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,63; 8,19</t>
+          <t>4,46; 8,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,26; 8,0</t>
+          <t>4,38; 7,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,78; 4,59</t>
+          <t>1,86; 4,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,97; 7,69</t>
+          <t>4,13; 7,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,39; 11,78</t>
+          <t>7,2; 11,66</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,96; 8,41</t>
+          <t>4,71; 8,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,9; 5,01</t>
+          <t>1,86; 5,08</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,49; 5,92</t>
+          <t>3,56; 5,91</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,48; 9,48</t>
+          <t>6,52; 9,34</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,04; 7,7</t>
+          <t>5,04; 7,67</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,16; 4,29</t>
+          <t>2,19; 4,17</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,28; 7,32</t>
+          <t>4,23; 7,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,92; 5,44</t>
+          <t>2,95; 5,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,25; 4,64</t>
+          <t>2,46; 4,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,88; 4,27</t>
+          <t>1,86; 4,3</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,76; 7,86</t>
+          <t>4,65; 7,76</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,15; 6,81</t>
+          <t>3,97; 7,01</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,76; 5,2</t>
+          <t>2,86; 5,28</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,14; 4,06</t>
+          <t>2,22; 4,26</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,82; 7,0</t>
+          <t>4,79; 6,95</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,89; 5,8</t>
+          <t>3,81; 5,76</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,86; 4,58</t>
+          <t>2,9; 4,55</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,27; 3,85</t>
+          <t>2,26; 3,8</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,08; 5,69</t>
+          <t>4,13; 5,74</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,1; 5,51</t>
+          <t>4,09; 5,53</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,6; 5,08</t>
+          <t>3,61; 5,04</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,83; 2,96</t>
+          <t>1,81; 3,01</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,18; 6,83</t>
+          <t>5,24; 6,85</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>5,45; 7,07</t>
+          <t>5,42; 7,12</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,85; 5,27</t>
+          <t>3,86; 5,22</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,01; 3,11</t>
+          <t>2,01; 3,04</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>4,81; 5,94</t>
+          <t>4,83; 6,03</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>4,95; 6,06</t>
+          <t>4,97; 6,03</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>3,91; 4,93</t>
+          <t>3,95; 4,98</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>2,06; 2,83</t>
+          <t>2,06; 2,85</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/Hacinamiento_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/Hacinamiento_R-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,87; 7,45</t>
+          <t>0,87; 7,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,72; 6,61</t>
+          <t>0,7; 6,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,16; 12,68</t>
+          <t>1,62; 11,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,84</t>
+          <t>0,0; 4,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,95; 8,34</t>
+          <t>0,95; 8,26</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,75; 7,59</t>
+          <t>0,76; 8,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,47; 4,49</t>
+          <t>0,47; 3,99</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,17; 5,53</t>
+          <t>1,23; 5,85</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,98; 8,21</t>
+          <t>2,04; 8,09</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,27; 5,82</t>
+          <t>2,1; 5,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,3; 6,97</t>
+          <t>3,43; 7,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,85; 6,89</t>
+          <t>3,06; 6,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,17; 8,39</t>
+          <t>4,38; 8,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,81; 6,22</t>
+          <t>3,01; 6,47</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,78; 6,23</t>
+          <t>2,85; 6,27</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,72; 6,39</t>
+          <t>3,67; 6,43</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,49; 6,09</t>
+          <t>3,54; 6,03</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,19; 5,73</t>
+          <t>3,31; 5,76</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,33; 7,63</t>
+          <t>4,25; 7,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,34; 6,04</t>
+          <t>3,38; 5,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,53; 5,24</t>
+          <t>2,52; 4,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,94; 8,29</t>
+          <t>5,03; 8,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,66; 7,68</t>
+          <t>4,6; 7,68</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,98; 5,46</t>
+          <t>3,01; 5,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,09; 7,39</t>
+          <t>5,05; 7,4</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,41; 6,45</t>
+          <t>4,31; 6,24</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,94; 4,72</t>
+          <t>3,05; 4,76</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,21; 5,19</t>
+          <t>2,3; 5,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,46; 8,03</t>
+          <t>4,45; 8,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,38; 7,78</t>
+          <t>4,33; 8,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,13; 7,57</t>
+          <t>3,98; 7,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,2; 11,66</t>
+          <t>7,43; 11,66</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,71; 8,35</t>
+          <t>5,02; 8,58</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,56; 5,91</t>
+          <t>3,61; 5,89</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,52; 9,34</t>
+          <t>6,46; 9,38</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,04; 7,67</t>
+          <t>5,05; 7,71</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,23; 7,28</t>
+          <t>4,24; 7,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,95; 5,51</t>
+          <t>2,9; 5,53</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,46; 4,68</t>
+          <t>2,38; 4,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,65; 7,76</t>
+          <t>4,73; 7,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,97; 7,01</t>
+          <t>4,07; 6,97</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,86; 5,28</t>
+          <t>2,79; 5,28</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,79; 6,95</t>
+          <t>4,92; 6,95</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,81; 5,76</t>
+          <t>3,83; 5,79</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,9; 4,55</t>
+          <t>2,89; 4,57</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,13; 5,74</t>
+          <t>4,08; 5,64</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,09; 5,53</t>
+          <t>4,04; 5,52</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,61; 5,04</t>
+          <t>3,63; 5,05</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,24; 6,85</t>
+          <t>5,18; 6,86</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>5,42; 7,12</t>
+          <t>5,4; 6,99</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,86; 5,22</t>
+          <t>3,85; 5,26</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>4,83; 6,03</t>
+          <t>4,82; 6,02</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>4,97; 6,03</t>
+          <t>5,0; 6,09</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>3,95; 4,98</t>
+          <t>3,92; 4,92</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">

--- a/data/trans_dic/Hacinamiento_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/Hacinamiento_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,87; 7,67</t>
+          <t>0,86; 7,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,7; 6,53</t>
+          <t>0,74; 6,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,62; 11,56</t>
+          <t>1,65; 12,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,61</t>
+          <t>0,0; 6,39</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,64</t>
+          <t>0,0; 4,25</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,95; 8,26</t>
+          <t>0,93; 7,42</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,76; 8,23</t>
+          <t>0,75; 8,3</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,72</t>
+          <t>0,0; 2,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,47; 3,99</t>
+          <t>0,44; 4,44</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,23; 5,85</t>
+          <t>1,13; 5,79</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,04; 8,09</t>
+          <t>2,06; 8,11</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,02</t>
+          <t>0,17; 3,25</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,1; 5,47</t>
+          <t>2,17; 5,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,43; 7,08</t>
+          <t>3,37; 7,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,06; 6,87</t>
+          <t>2,83; 6,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,48; 4,07</t>
+          <t>0,51; 4,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,38; 8,62</t>
+          <t>4,26; 8,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,01; 6,47</t>
+          <t>2,85; 6,31</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,85; 6,27</t>
+          <t>2,62; 6,02</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,07; 3,09</t>
+          <t>1,03; 3,01</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,67; 6,43</t>
+          <t>3,76; 6,47</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,54; 6,03</t>
+          <t>3,56; 6,01</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,31; 5,76</t>
+          <t>3,24; 5,85</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,96; 2,82</t>
+          <t>1,01; 2,91</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,25; 7,67</t>
+          <t>4,36; 7,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,38; 5,95</t>
+          <t>3,45; 6,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,52; 4,84</t>
+          <t>2,59; 5,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,19; 3,28</t>
+          <t>1,25; 3,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,03; 8,48</t>
+          <t>5,04; 8,41</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,6; 7,68</t>
+          <t>4,62; 7,8</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,01; 5,41</t>
+          <t>3,01; 5,53</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,4; 3,03</t>
+          <t>1,36; 2,95</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,05; 7,4</t>
+          <t>5,15; 7,43</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,31; 6,24</t>
+          <t>4,37; 6,42</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,05; 4,76</t>
+          <t>2,96; 4,73</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,47; 2,78</t>
+          <t>1,43; 2,73</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,3; 5,5</t>
+          <t>2,29; 5,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,45; 8,29</t>
+          <t>4,63; 8,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,33; 8,09</t>
+          <t>4,26; 8,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,86; 4,73</t>
+          <t>1,78; 4,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,98; 7,53</t>
+          <t>3,97; 7,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,43; 11,66</t>
+          <t>7,39; 11,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,02; 8,58</t>
+          <t>4,96; 8,41</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,86; 5,08</t>
+          <t>1,9; 5,01</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,61; 5,89</t>
+          <t>3,49; 5,92</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,46; 9,38</t>
+          <t>6,48; 9,48</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,05; 7,71</t>
+          <t>5,04; 7,7</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,19; 4,17</t>
+          <t>2,16; 4,29</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,24; 7,17</t>
+          <t>4,28; 7,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,9; 5,53</t>
+          <t>2,92; 5,44</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,38; 4,79</t>
+          <t>2,25; 4,64</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,86; 4,3</t>
+          <t>1,88; 4,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,73; 7,66</t>
+          <t>4,76; 7,86</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,07; 6,97</t>
+          <t>4,15; 6,81</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,79; 5,28</t>
+          <t>2,76; 5,2</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,22; 4,26</t>
+          <t>2,14; 4,06</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,92; 6,95</t>
+          <t>4,82; 7,0</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,83; 5,79</t>
+          <t>3,89; 5,8</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,89; 4,57</t>
+          <t>2,86; 4,58</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,26; 3,8</t>
+          <t>2,27; 3,85</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,08; 5,64</t>
+          <t>4,08; 5,69</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,04; 5,52</t>
+          <t>4,1; 5,51</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,63; 5,05</t>
+          <t>3,6; 5,08</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,81; 3,01</t>
+          <t>1,83; 2,96</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,18; 6,86</t>
+          <t>5,18; 6,83</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>5,4; 6,99</t>
+          <t>5,45; 7,07</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,85; 5,26</t>
+          <t>3,85; 5,27</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,01; 3,04</t>
+          <t>2,01; 3,11</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>4,82; 6,02</t>
+          <t>4,81; 5,94</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>5,0; 6,09</t>
+          <t>4,95; 6,06</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>3,92; 4,92</t>
+          <t>3,91; 4,93</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>2,06; 2,85</t>
+          <t>2,06; 2,83</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/Hacinamiento_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/Hacinamiento_R-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,43%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>1,63%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,86; 7,55</t>
+          <t>2,28; 5,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,74; 6,66</t>
+          <t>3,2; 6,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,65; 12,13</t>
+          <t>3,18; 6,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,39</t>
+          <t>0,52; 5,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,25</t>
+          <t>3,79; 7,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,93; 7,42</t>
+          <t>2,81; 5,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,75; 8,3</t>
+          <t>2,75; 5,86</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,0</t>
+          <t>0,92; 2,54</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,44; 4,44</t>
+          <t>3,4; 5,66</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,13; 5,79</t>
+          <t>3,42; 5,66</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,06; 8,11</t>
+          <t>3,41; 5,69</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,17; 3,25</t>
+          <t>0,92; 3,01</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>5,85%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,55%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,42%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>6,22%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>6,07%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>6,2%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>1,92%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,17; 5,81</t>
+          <t>4,36; 7,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,37; 7,08</t>
+          <t>3,45; 6,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,83; 6,67</t>
+          <t>2,59; 5,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,51; 4,52</t>
+          <t>0,78; 2,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,26; 8,52</t>
+          <t>5,04; 8,41</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,85; 6,31</t>
+          <t>4,62; 7,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,62; 6,02</t>
+          <t>3,01; 5,53</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,03; 3,01</t>
+          <t>1,44; 3,2</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,76; 6,47</t>
+          <t>5,15; 7,43</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,56; 6,01</t>
+          <t>4,37; 6,42</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,24; 5,85</t>
+          <t>2,96; 4,73</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,01; 2,91</t>
+          <t>1,2; 2,65</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,85%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>6,02%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>9,34%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>6,49%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>2,96%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>4,6%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>7,75%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>6,26%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>2,95%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,36; 7,45</t>
+          <t>2,29; 5,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,45; 6,14</t>
+          <t>4,63; 8,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,59; 5,14</t>
+          <t>4,26; 8,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,25; 3,19</t>
+          <t>1,79; 4,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,04; 8,41</t>
+          <t>3,97; 7,69</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,62; 7,8</t>
+          <t>7,39; 11,78</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,01; 5,53</t>
+          <t>4,96; 8,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,36; 2,95</t>
+          <t>1,36; 4,8</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,15; 7,43</t>
+          <t>3,49; 5,92</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,37; 6,42</t>
+          <t>6,48; 9,48</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,96; 4,73</t>
+          <t>5,04; 7,7</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,43; 2,73</t>
+          <t>1,81; 4,28</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,6%</t>
+          <t>6,09%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>9,34%</t>
+          <t>5,35%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>3,9%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>3,17%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>5,86%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>7,75%</t>
+          <t>4,73%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>3,64%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>2,9%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,29; 5,34</t>
+          <t>4,28; 7,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,63; 8,19</t>
+          <t>2,92; 5,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,26; 8,0</t>
+          <t>2,25; 4,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,78; 4,59</t>
+          <t>1,86; 4,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,97; 7,69</t>
+          <t>4,76; 7,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,39; 11,78</t>
+          <t>4,15; 6,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,96; 8,41</t>
+          <t>2,76; 5,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,9; 5,01</t>
+          <t>2,05; 4,01</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,49; 5,92</t>
+          <t>4,82; 7,0</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,48; 9,48</t>
+          <t>3,89; 5,8</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,04; 7,7</t>
+          <t>2,86; 4,58</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,16; 4,29</t>
+          <t>2,21; 3,77</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,6%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>4,76%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>6,09%</t>
+          <t>5,97%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>6,2%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>3,9%</t>
+          <t>4,55%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>3,01%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>4,73%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>3,64%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>2,96%</t>
+          <t>2,37%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,28; 7,32</t>
+          <t>4,08; 5,69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,92; 5,44</t>
+          <t>4,1; 5,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,25; 4,64</t>
+          <t>3,6; 5,08</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,88; 4,27</t>
+          <t>1,66; 2,98</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,76; 7,86</t>
+          <t>5,18; 6,83</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,15; 6,81</t>
+          <t>5,45; 7,07</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,76; 5,2</t>
+          <t>3,85; 5,27</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,14; 4,06</t>
+          <t>1,9; 3,21</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,82; 7,0</t>
+          <t>4,81; 5,94</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,89; 5,8</t>
+          <t>4,95; 6,06</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,86; 4,58</t>
+          <t>3,91; 4,93</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,27; 3,85</t>
+          <t>1,95; 2,83</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>4,82%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>4,76%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>4,3%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>2,35%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>5,97%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>6,2%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>4,55%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>2,5%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>5,4%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>5,49%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>4,43%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>2,43%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>4,08; 5,69</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>4,1; 5,51</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>3,6; 5,08</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>1,83; 2,96</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>5,18; 6,83</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>5,45; 7,07</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>3,85; 5,27</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>2,01; 3,11</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>4,81; 5,94</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>4,95; 6,06</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>3,91; 4,93</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>2,06; 2,83</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/Hacinamiento_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/Hacinamiento_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,28; 5,33</t>
+          <t>2,34; 5,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,2; 6,41</t>
+          <t>3,18; 6,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,18; 6,87</t>
+          <t>3,17; 6,76</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,52; 5,2</t>
+          <t>0,63; 5,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,79; 7,27</t>
+          <t>3,9; 7,41</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,81; 5,98</t>
+          <t>2,89; 6,01</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,75; 5,86</t>
+          <t>2,83; 5,77</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,92; 2,54</t>
+          <t>0,86; 2,64</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,4; 5,66</t>
+          <t>3,34; 5,67</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,42; 5,66</t>
+          <t>3,43; 5,64</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,41; 5,69</t>
+          <t>3,31; 5,59</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,92; 3,01</t>
+          <t>1,02; 3,32</t>
         </is>
       </c>
     </row>
@@ -864,57 +865,57 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,36; 7,45</t>
+          <t>4,56; 7,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,45; 6,14</t>
+          <t>3,31; 5,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,59; 5,14</t>
+          <t>2,47; 4,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,78; 2,78</t>
+          <t>0,78; 2,84</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,04; 8,41</t>
+          <t>5,02; 8,29</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,62; 7,8</t>
+          <t>4,57; 7,57</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,01; 5,53</t>
+          <t>3,04; 5,44</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,44; 3,2</t>
+          <t>1,47; 3,26</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,15; 7,43</t>
+          <t>5,1; 7,44</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,37; 6,42</t>
+          <t>4,38; 6,35</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,96; 4,73</t>
+          <t>2,91; 4,65</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,29; 5,34</t>
+          <t>2,29; 5,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,63; 8,19</t>
+          <t>4,23; 7,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,26; 8,0</t>
+          <t>4,47; 8,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,79; 4,58</t>
+          <t>1,8; 4,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,97; 7,69</t>
+          <t>3,99; 7,79</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,39; 11,78</t>
+          <t>7,27; 11,69</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,96; 8,41</t>
+          <t>4,84; 8,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,36; 4,8</t>
+          <t>1,4; 4,99</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,49; 5,92</t>
+          <t>3,56; 5,99</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,48; 9,48</t>
+          <t>6,24; 9,25</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,04; 7,7</t>
+          <t>5,09; 7,64</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,81; 4,28</t>
+          <t>1,82; 4,22</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,28; 7,32</t>
+          <t>4,22; 7,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,92; 5,44</t>
+          <t>2,94; 5,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,25; 4,64</t>
+          <t>2,3; 4,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,86; 4,16</t>
+          <t>1,92; 4,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,76; 7,86</t>
+          <t>4,69; 7,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,15; 6,81</t>
+          <t>4,1; 7,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,76; 5,2</t>
+          <t>2,83; 5,33</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,05; 4,01</t>
+          <t>2,0; 4,06</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,82; 7,0</t>
+          <t>4,92; 7,09</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,89; 5,8</t>
+          <t>3,82; 5,72</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,86; 4,58</t>
+          <t>2,84; 4,57</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,21; 3,77</t>
+          <t>2,19; 3,71</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,08; 5,69</t>
+          <t>4,04; 5,6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,1; 5,51</t>
+          <t>4,11; 5,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,6; 5,08</t>
+          <t>3,63; 5,08</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,66; 2,98</t>
+          <t>1,65; 3,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,18; 6,83</t>
+          <t>5,17; 6,9</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,45; 7,07</t>
+          <t>5,43; 7,05</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,85; 5,27</t>
+          <t>3,87; 5,34</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,9; 3,21</t>
+          <t>1,92; 3,13</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,81; 5,94</t>
+          <t>4,86; 6,03</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>4,95; 6,06</t>
+          <t>4,92; 6,06</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>3,91; 4,93</t>
+          <t>3,92; 4,93</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,95; 2,83</t>
+          <t>1,94; 2,84</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con dos o más personas por habitación</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>24300</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>32236</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>31651</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>10520</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>36581</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>28955</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>27464</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>11458</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>60880</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>61191</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>59115</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>21978</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>16171; 35618</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>22293; 44772</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>21374; 45513</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>3989; 33147</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>26805; 50927</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>20013; 41642</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>19046; 38770</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>6201; 19059</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>46023; 78181</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>47809; 78579</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>44542; 75214</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>13793; 44844</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>56030</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>45971</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>36943</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>20286</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>63226</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>62547</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>41779</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>20553</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>119256</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>108517</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>78722</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>40838</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>43674; 73105</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>33620; 60061</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>25135; 50763</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>9226; 33570</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>48547; 80060</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>47091; 78045</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>31578; 56512</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>13908; 30879</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>98116; 143144</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>89686; 129926</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>59897; 95643</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>25662; 56580</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>24327</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>45972</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>45410</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>20601</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>38276</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>72238</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>50681</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>27373</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>62602</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>118210</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>96091</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>47975</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>15546; 35680</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>31844; 59995</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>33740; 62856</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>12650; 33185</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>27275; 53182</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>56183; 90344</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>37767; 65306</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>12995; 46168</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>48475; 81435</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>95179; 141122</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>78126; 117360</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>29604; 68627</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>52650</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>38172</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>31119</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>26442</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>62978</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>55959</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>40392</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>31602</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>115628</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>94131</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>71510</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>58043</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>39687; 68460</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>27766; 51490</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>21345; 43685</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>17576; 39930</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>48471; 81182</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>42866; 73400</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>29321; 55124</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>21716; 43965</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>97121; 139982</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>75994; 113946</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>55852; 89715</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>43839; 74243</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>361</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>157307</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>162350</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>145123</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>77848</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>201060</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>219699</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>160315</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>90986</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>358366</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>382049</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>305438</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>168834</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>132020; 183004</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>140369; 193221</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>122364; 171312</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>56636; 105425</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>174184; 232663</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>192329; 250007</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>136608; 188378</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>70590; 114945</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>322844; 400050</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>342485; 421320</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>270698; 340004</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>137769; 201908</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>